--- a/Gsport/Gsport/FitxersImport/Partits.xlsx
+++ b/Gsport/Gsport/FitxersImport/Partits.xlsx
@@ -61,16 +61,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -463,7 +466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -509,10 +512,10 @@
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -538,10 +541,10 @@
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -567,10 +570,10 @@
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -596,10 +599,10 @@
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
         <v>10</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -625,10 +628,10 @@
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -654,10 +657,10 @@
     </row>
     <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
         <v>12</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -683,10 +686,10 @@
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -712,10 +715,10 @@
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>15</v>
@@ -741,10 +744,10 @@
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10" s="10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>12</v>

--- a/Gsport/Gsport/FitxersImport/Partits.xlsx
+++ b/Gsport/Gsport/FitxersImport/Partits.xlsx
@@ -465,8 +465,8 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -512,10 +512,10 @@
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -570,10 +570,10 @@
     </row>
     <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="7" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -686,10 +686,10 @@
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <v>15</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="10" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B10" s="10">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <v>12</v>
